--- a/biology/Zoologie/Frankliniella_tritici/Frankliniella_tritici.xlsx
+++ b/biology/Zoologie/Frankliniella_tritici/Frankliniella_tritici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankliniella tritici (le thrips des fleurs) est une espèce d'insectes thysanoptères de la famille des Thripidae, très largement répandue dans le monde.
 Cet insecte est un ravageur des cultures de nombreuses plantes  : plantes à fleurs coupées, à petits fruits (framboisiers, fraisiers, etc.), mais aussi de grandes cultures telles que cotonnier, luzerne, haricot, etc.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon  Thrips of California[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  Thrips of California.
 Thrips tritici Fitch, 1855
 Frankliniella varicorne Bagnall, 1919
 Frankliniella fulvus Moulton, 1936
@@ -547,10 +561,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition comprend l'Europe et le nord de l'Asie (sauf la Chine), l'Amérique du Nord et du Sud, l'Amérique centrale et les Antilles, ainsi que l'Australie
-[2].
+.
 </t>
         </is>
       </c>
